--- a/DOM_Banner/output/dept0713/Xingnan Li_2022.xlsx
+++ b/DOM_Banner/output/dept0713/Xingnan Li_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Department of Health Sciences, University of Leicester, Leicester, England. Electronic address: cj153@leicester.ac.uk.; Department of Health Sciences, University of Leicester, Leicester, England; Department of Health Sciences, University of Leicester, Leicester, England; Department of Health Sciences, University of Leicester, Leicester, England; deCODE Genetics/Amgen, Reykjavik, Iceland; Channing Division of Network Medicine, Brigham and Women’s Hospital and Harvard Medical School, Boston, MA; Channing Division of Network Medicine, Brigham and Women’s Hospital and Harvard Medical School, Boston, MA; Channing Division of Network Medicine, Brigham and Women’s Hospital and Harvard Medical School, Boston, MA; Institute for Molecular Medicine Finland, University of Helsinki, Helsinki, Finland; MRC Epidemiology Unit, University of Cambridge School of Clinical Medicine, Cambridge, England; Division of Genetics, Genomics and Precision Medicine, Department of Medicine, University of Arizona, Tucson, AZ; Department of Epidemiology, Erasmus Medical Center, Rotterdam, the Netherlands; Department of Biostatistics, Boston University School of Public Health, Boston, MA; Cardiovascular Health Research Unit, Department of Medicine and Department of Biostatistics, University of Washington, Seattle, WA; Lovelace Respiratory Research Institute, Albuquerque, NM; Division of Epidemiology, Biostatistics, and Preventive Medicine, Department of Internal Medicine, University of New Mexico, Albuquerque, NM; Lovelace Respiratory Research Institute, Albuquerque, NM; Department of Public Health and Nursing, Faculty of Medicine and Health Sciences, Norwegian University of Science and Technology (NTNU), Levanger, Norway; Centre for Heart Lung Innovation, University of British Columbia, Vancouver, BC, Canada; Centre for Heart Lung Innovation, University of British Columbia, Vancouver, BC, Canada; Faculty of Medicine, School of Health Sciences, University of Iceland, Reykjavik, Iceland; deCODE Genetics/Amgen, Reykjavik, Iceland; Division of Genetics, Genomics and Precision Medicine, Department of Medicine, University of Arizona, Tucson, AZ; Division of Genetics, Genomics and Precision Medicine, Department of Medicine, University of Arizona, Tucson, AZ; Division of Research, Kaiser Permanente of Northern California, Oakland, CA; Division of Research, Kaiser Permanente of Northern California, Oakland, CA; Brigham and Women’s Hospital and Harvard Medical School, Boston, MA; Computational Medicine Core, Center for Lung Biology and UW Medicine Sleep Center, Medicine, University of Washington, Seattle, WA; Cardiovascular Health Research Unit, Department of Medicine and Department of Biostatistics, University of Washington, Seattle, WA; Department of Biostatistics, Boston University School of Public Health, Boston, MA; Department of Respiratory Medicine, Ghent University Hospital, Ghent, Belgium; Department of Bioanalysis, Ghent University, Ghent, Belgium; Department of Epidemiology, Erasmus Medical Center, Rotterdam, the Netherlands; Department of Medicine, Wake Forest School of Medicine, Winston-Salem, NC; Faculty of Medicine, School of Health Sciences, University of Iceland, Reykjavik, Iceland; deCODE Genetics/Amgen, Reykjavik, Iceland; Centre for Heart Lung Innovation, University of British Columbia, Vancouver, BC, Canada; Institut Universitaire de Cardiologie et de Pneumologie de Québec, Laval University, Quebec, QC, Canada; Department of Pulmonology, University Medical Center Groningen, University of Groningen, and GRIAC Research Institute, Groningen, the Netherlands; Global Health, University of Washington, Seattle, WA; Gossamer Bio, San Diego, CA; National Heart and Lung Institute, Imperial College London, London, UK; Biodiscovery Institute, University of Nottingham, Nottingham, England; Division of Respiratory Medicine and NIHR Nottingham Biomedical Research Centre, University of Nottingham, Nottingham, England; Division of Respiratory Medicine and NIHR Nottingham Biomedical Research Centre, University of Nottingham, Nottingham, England; MRC Epidemiology Unit, University of Cambridge School of Clinical Medicine, Cambridge, England; Broad Institute of MIT and Harvard, Cambridge, MA; Institute for Molecular Medicine Finland, University of Helsinki, Helsinki, Finland; Department of Pulmonary Diseases and Clinical Allergology, University of Turku, Turku, Finland; Division of Medicine, Department of Pulmonary Diseases, Turku University Hospital, Turku, Finland; Center for Healthcare Research in Pediatrics (CHeRP) and PRecisiOn Medicine Translational Research (PROMoTeR) Center, Department of Population Medicine, Harvard Pilgrim Health Care Institute and Harvard Medical School, Boston, MA; Channing Division of Network Medicine, Brigham and Women’s Hospital and Harvard Medical School, Boston, MA; Department of Clinical Science, University of Bergen, Bergen, Norway; Department of Clinical Science, University of Bergen, Bergen, Norway; Channing Division of Network Medicine, Brigham and Women’s Hospital and Harvard Medical School, Boston, MA; MRC Human Genetics Unit, Institute of Genetics and Cancer, University of Edinburgh, Edinburgh, Scotland; Department of Public Health and Nursing, Faculty of Medicine and Health Sciences, Norwegian University of Science and Technology (NTNU), Levanger, Norway; Clinic of Thoracic and Occupational Medicine, St. Olav’s Hospital, Trondheim University Hospital, Trondheim, Norway; K. G. Jebsen Center for Genetic Epidemiology, Department of Public Health and Nursing, Norwegian University of Science and Technology (NTNU), Trondheim, Norway; Faculty of Medicine, School of Health Sciences, University of Iceland, Reykjavik, Iceland; deCODE Genetics/Amgen, Reykjavik, Iceland; Channing Division of Network Medicine, Brigham and Women’s Hospital and Harvard Medical School, Boston, MA; Department of Health Sciences, University of Leicester, Leicester, England; Leicester NIHR Biomedical Research Centre, Leicester, England; Department of Health Sciences, University of Leicester, Leicester, England; Leicester NIHR Biomedical Research Centre, Leicester, England</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4220662537</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Genetic Associations and Architecture of Asthma-COPD Overlap</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-05-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Chest</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.chest.2021.12.674</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35104449</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.chest.2021.12.674</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Center for Public Health Genomics, University of Virginia, Charlottesville, VA 22908, USA; Channing Division of Network Medicine, Department of Medicine, Brigham and Women’s Hospital and Harvard Medical School, Boston, MA 02115, USA; Channing Division of Network Medicine, Department of Medicine, Brigham and Women’s Hospital and Harvard Medical School, Boston, MA 02115, USA; Channing Division of Network Medicine, Department of Medicine, Brigham and Women’s Hospital and Harvard Medical School, Boston, MA 02115, USA; Departments of Medicine and Epidemiology, Columbia University Medical Center, New York, NY 10032, USA; Division of Biomedical Informatics and Personalized Medicine, Department of Medicine, University of Colorado School of Medicine Anschutz Medical Campus, Aurora, CO 80045, USA; Cardiovascular Health Research Unit, Department of Medicine, University of Washington, Seattle, WA 98101, USA; Department of Pediatrics, Feinberg School of Medicine, Northwestern University, Chicago, IL 60611, USA; Division of Allergy and Clinical Immunology, Ann and Robert H. Lurie Children’s Hospital, Chicago, IL 60611, USA; Department of Medicine, University of Arizona, Tucson, AZ 85724, USA; Human Genetics Center, Department of Epidemiology, Human Genetics, and Environmental Sciences, School of Public Health, The University of Texas Health Science Center at Houston, Houston, TX 77030, USA; Department of Medicine, Harvard Medical School, Boston, MA 02115, USA; Division of Sleep and Circadian Disorders, Brigham and Women’s Hospital, Boston, MA 02115, USA; Department of Biostatistics, University of Washington, Seattle, WA 98195, USA; Department of Medicine, Harvard Medical School, Boston, MA 02115, USA; Division of Sleep and Circadian Disorders, Brigham and Women’s Hospital, Boston, MA 02115, USA; Department of Biostatistics, Johns Hopkins Bloomberg School of Public Health, Baltimore, MD 21205, USA; Department of Genome Sciences, University of Washington, Seattle, WA 98195, USA; The Human Genome Sequencing Center, Baylor College of Medicine, Houston, TX 77030, USA; The Human Genome Sequencing Center, Baylor College of Medicine, Houston, TX 77030, USA; The Human Genome Sequencing Center, Baylor College of Medicine, Houston, TX 77030, USA; Broad Institute of MIT and Harvard, Cambridge, MA 02142, USA; Broad Institute of MIT and Harvard, Cambridge, MA 02142, USA; The Human Genome Sequencing Center, Baylor College of Medicine, Houston, TX 77030, USA; Department of Biostatistics, Boston University School of Public Health, Boston, MA 02118, USA; Department of Epidemiology, Gillings School of Global Public Health, University of North Carolina, Chapel Hill, NC 27599, USA; Department of Biostatistics, University of Washington, Seattle, WA 98195, USA; The Institute for Translational Genomics and Population Sciences, Department of Pediatrics, The Lundquist Institute for Biomedical Innovation at Harbor-UCLA Medical Center, Torrance, CA 90502, USA; Division of Cardiovascular Medicine, Beth Israel Deaconess Medical Center and Harvard Medical School, Boston, MA 02115, USA; Cardiovascular Health Research Unit, Departments of Medicine, Epidemiology, and Health Systems and Population Health, University of Washington, Seattle, WA 98101, USA; Brown Foundation Institute of Molecular Medicine, McGovern Medical School, The University of Texas Health Science Center at Houston, Houston, TX 77030, USA; Human Genetics Center, Department of Epidemiology, Human Genetics, and Environmental Sciences, School of Public Health, The University of Texas Health Science Center at Houston, Houston, TX 77030, USA; Human Genetics Center, Department of Epidemiology, Human Genetics, and Environmental Sciences, School of Public Health, The University of Texas Health Science Center at Houston, Houston, TX 77030, USA; Boston University and the National Heart Lung and Blood Institute’s Framingham Heart Study, Framingham, MA 01702, USA; Department of Preventive Medicine and Epidemiology, School of Medicine and Public Health, Boston University, Boston, MA 02118, USA; Division of Pulmonary and Critical Care Medicine, Department of Medicine, Brigham and Women’s Hospital, Boston, MA 02115, USA; Center for Public Health Genomics, University of Virginia, Charlottesville, VA 22908, USA; Pulmonary Center, Boston University, School of Medicine, Boston, MA 02118, USA; Department of Medicine, University of Arizona, Tucson, AZ 85724, USA; Department of Epidemiology and Population Health, Albert Einstein College of Medicine, Bronx, NY 10461, USA; Public Health Sciences Division, Fred Hutchinson Cancer Research Center, Seattle, WA 98109, USA; Department of Medicine, Feinberg School of Medicine, Northwestern University, Chicago, IL 60611, USA; Department of Medicine, Harvard Medical School, Boston, MA 02115, USA; Division of Sleep and Circadian Disorders, Brigham and Women’s Hospital, Boston, MA 02115, USA; Division of Pulmonary, Critical Care and Sleep Medicine, University of Washington, Seattle, WA 98109, USA; Department of Medicine, University of Arizona, Tucson, AZ 85724, USA; Pulmonary and Critical Care, School of Medicine, Wake Forest University, Winston-Salem, NC 27157, USA; Department of Biostatistics, Boston University School of Public Health, Boston, MA 02118, USA; Epidemiology Branch, National Institute of Environmental Health Sciences, National Institutes of Health, Department of Health and Human Services, Durham, NC 27709, USA; Department of Systems Biology, Columbia University, New York, NY 10032, USA; New York Genome Center, New York, NY 10013, USA; Departments of Medicine and Epidemiology, Columbia University Medical Center, New York, NY 10032, USA; Channing Division of Network Medicine, Department of Medicine, Brigham and Women’s Hospital and Harvard Medical School, Boston, MA 02115, USA; Departments of Medicine and Epidemiology, Columbia University Medical Center, New York, NY 10032, USA; Department of Biostatistics, University of Washington, Seattle, WA 98195, USA; Department of Biology, Loyola University Chicago, Chicago, IL 60660, USA; Channing Division of Network Medicine, Department of Medicine, Brigham and Women’s Hospital and Harvard Medical School, Boston, MA 02115, USA; Section of Genetic Medicine, The University of Chicago, Chicago, IL 60637, USA; Center for Public Health Genomics, University of Virginia, Charlottesville, VA 22908, USA</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4226476757</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Polygenic transcriptome risk scores for COPD and lung function improve cross-ethnic portability of prediction in the NHLBI TOPMed program</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-05-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>The American Journal of Human Genetics</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.ajhg.2022.03.007</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>publisher-specific-oa</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35385699</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.ajhg.2022.03.007</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,39 +626,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Guangdong Power Grid Co., Ltd.,China; Guangdong Power Grid Co., Ltd.,China; Guangdong Power Grid Co., Ltd.,China; Guangdong Power Grid Co., Ltd.,China; Guangdong Power Grid Co., Ltd.,China</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4293094964</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Research on Asymptotic Image Compression Algorithm for Beidou Short Message</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2022-07-08</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2022 4th International Conference on Intelligent Control, Measurement and Signal Processing (ICMSP)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1109/icmsp55950.2022.9859239</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I4" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -651,35 +666,40 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1109/icmsp55950.2022.9859239</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,39 +713,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>University of Hawaii Cancer Center  Honolulu HI USA; University of Hawaii Cancer Center  Honolulu HI USA; University of Hawaii Cancer Center  Honolulu HI USA; University of Guam Cancer Research Center  Mangilao GU USA; University of Guam Cancer Research Center  Mangilao GU USA; University of Hawaii Cancer Center  Honolulu HI USA; University of Hawaii Cancer Center  Honolulu HI USA</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4294567981</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Salivary &lt;i&gt;Areca&lt;/i&gt; and tobacco alkaloids for bioverification in the Betel Nut Intervention Trial</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2022-10-02</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Drug Testing and Analysis</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Wiley</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1002/dta.3364</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -733,35 +753,40 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36057968</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1002/dta.3364</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,39 +800,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Guangdong Power Grid Co., Ltd. Power Dispatching Control Center,Communication Management Department,China; Guangdong Power Grid Co., Ltd. Power Dispatching Control Center,Communication Management Department,China; Guangdong Electric Power Communication Technology Co., LTD,Science and Technology Innovation Department,China; Guangdong Electric Power Communication Technology Co., LTD,Science and Technology Innovation Department,China</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4281695833</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Research on frequency resource allocation model for power line carrier service of Integrated station, equipment and user</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2022-04-01</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>2022 7th Asia Conference on Power and Electrical Engineering (ACPEE)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="G6" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1109/acpee53904.2022.9783913</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -815,35 +840,40 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1109/acpee53904.2022.9783913</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,39 +887,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Guangdong Power Grid Co., Ltd. Power Dispatching Control Center,Communication Management Department,Guangdong,China; Guangdong Power Grid Co., Ltd. Power Dispatching Control Center,Communication Management Department,Guangdong,China; Guangdong Power Grid Co., Ltd. Power Dispatching Control Center,Communication Management Department,Guangdong,China</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4285814620</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Research on Heterogeneous Converged Network Handover Algorithm for Mountainous Microgrid</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2022-05-20</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>2022 3rd International Conference on Computer Vision, Image and Deep Learning &amp;amp; International Conference on Computer Engineering and Applications (CVIDL &amp;amp; ICCEA)</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="G7" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1109/cvidliccea56201.2022.9825222</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -897,35 +927,40 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1109/cvidliccea56201.2022.9825222</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -939,39 +974,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Guangdong Power Grid Co., Ltd,Guangdong,China; Guangdong Power Grid Co., Ltd,Guangdong,China; Guangdong Power Grid Co., Ltd,Guangdong,China; Guangdong Power Grid Co., Ltd,Guangdong,China; Guangdong Power Grid Co., Ltd,Guangdong,China; Guangdong Power Grid Co., Ltd,Guangdong,China</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4315815690</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Research on Beidou New Generation Emergency Group Communication Decision-Making Mechanism</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2022-08-23</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>2022 IEEE 10th International Conference on Information, Communication and Networks (ICICN)</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="G8" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1109/icicn56848.2022.10006568</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I8" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -979,35 +1014,40 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1109/icicn56848.2022.10006568</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1021,75 +1061,80 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>Power Dispatching control Center of Guangdong Power Grid Co., LTD; Power Dispatching control Center of Guangdong Power Grid Co., LTD; Power Dispatching control Center of Guangdong Power Grid Co., LTD; Power Dispatching control Center of Guangdong Power Grid Co., LTD; Power Dispatching control Center of Guangdong Power Grid Co., LTD; Power Dispatching control Center of Guangdong Power Grid Co., LTD</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4225140320</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Research on HPLC Experimental Platform Component Scheme</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2022-04-01</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Journal of Physics: Conference Series</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>IOP Publishing</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1088/1742-6596/2258/1/012068</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I9" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1088/1742-6596/2258/1/012068</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1103,24 +1148,24 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>Guangdong Power Grid Co., Ltd. (China); Guangdong Power Grid Co., Ltd. (China); Guangdong Power Grid Co., Ltd. (China); Guangdong Power Grid Co., Ltd. (China); Guangdong Power Grid Co., Ltd. (China); Guangdong Power Grid Co., Ltd. (China)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4225310750</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Research on consistency scheme of HPLC protocol for multi service</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2022-04-29</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F10" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1128,14 +1173,14 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1117/12.2636837</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I10" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1143,35 +1188,40 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1117/12.2636837</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1185,24 +1235,24 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>Guangdong Grid Power Dispatching Control Ctr. (China); Guangdong Grid Power Dispatching Control Ctr. (China); Guangdong Grid Power Dispatching Control Ctr. (China); Guangdong Grid Power Dispatching Control Ctr. (China); Guangdong Grid Power Dispatching Control Ctr. (China); Guangdong Grid Power Dispatching Control Ctr. (China)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4225323970</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Research on key technologies of interconnection test of HPLC experimental platform</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2022-04-29</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F11" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1210,14 +1260,14 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1117/12.2636814</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I11" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1225,35 +1275,40 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>https://doi.org/10.1117/12.2636814</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1267,39 +1322,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4229003072</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Research on key technologies for field testing of HPLC experimental platform</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2022-05-06</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>International Conference on Electronic Information Engineering, Big Data, and Computer Technology (EIBDCT 2022)</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="G12" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1117/12.2635682</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I12" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1307,35 +1362,40 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>https://doi.org/10.1117/12.2635682</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1349,39 +1409,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4229014229</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>Key technology research of LVPLC physical environment simulation platform</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2022-05-06</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>International Conference on Electronic Information Engineering, Big Data, and Computer Technology (EIBDCT 2022)</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="G13" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1117/12.2635685</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I13" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1389,35 +1449,40 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>https://doi.org/10.1117/12.2635685</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1431,39 +1496,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t xml:space="preserve">Guangdong Power Grid Co., LTD (China); ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4283717655</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Research on equipment performance index evaluation system for HPLC</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2022-07-15</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>International Conference on Neural Networks, Information, and Communication Engineering (NNICE 2022)</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="G14" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1117/12.2639328</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I14" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1471,35 +1536,40 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>https://doi.org/10.1117/12.2639328</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1513,39 +1583,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>Guangdong Power Grid Co., Ltd.,China; Guangdong Power Grid Co., Ltd.,China; Guangdong Power Grid Co., Ltd.,China; Guangdong Power Grid Co., Ltd.,China; Guangdong Power Grid Co., Ltd.,China</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4293056008</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>Research on Coding and Enhancement Algorithm for Very Low-Rate Speech Compression of Beidou Short Message</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2022-07-08</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>2022 4th International Conference on Intelligent Control, Measurement and Signal Processing (ICMSP)</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="G15" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1109/icmsp55950.2022.9859211</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I15" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1553,35 +1623,40 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>https://doi.org/10.1109/icmsp55950.2022.9859211</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1595,39 +1670,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>Guangdong Power Grid Co., Ltd. Power Dispatching and Control Center (China); Guangdong Power Grid Co., Ltd. Shantou Power Supply Bureau (China); Guangdong Power Grid Co., Ltd. Power Dispatching and Control Center (China); Guangdong Power Grid Co., Ltd. Power Dispatching and Control Center (China)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4309801323</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>Digital twin assisted automatic routing selection for electric elastic optical networks</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2022-11-23</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>International Symposium on Robotics, Artificial Intelligence, and Information Engineering (RAIIE 2022)</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="G16" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1117/12.2659275</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I16" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1635,35 +1710,40 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="P16" t="inlineStr">
         <is>
           <t>https://doi.org/10.1117/12.2659275</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1677,39 +1757,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>Beijing Engineering Corporation Limited., Ltd; Beijing Engineering Corporation Limited., Ltd; Beijing Engineering Corporation Limited., Ltd; Beijing Engineering Corporation Limited., Ltd</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4321260980</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>Data Analysis of Water Supply Demand and Study on Scale of Water Transfer Project in Xiong'an New Area</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2022-11-25</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>2022 8th International Conference on Hydraulic and Civil Engineering: Deep Space Intelligent Development and Utilization Forum (ICHCE)</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="G17" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1109/ichce57331.2022.10042504</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I17" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1717,35 +1797,40 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="P17" t="inlineStr">
         <is>
           <t>https://doi.org/10.1109/ichce57331.2022.10042504</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="Q17" t="inlineStr">
         <is>
           <t>article</t>
         </is>

--- a/DOM_Banner/output/dept0713/Xingnan Li_2022.xlsx
+++ b/DOM_Banner/output/dept0713/Xingnan Li_2022.xlsx
@@ -594,7 +594,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
